--- a/ProjectDocs/Artifacts/SymCheck Acceptance Criteria.xlsx
+++ b/ProjectDocs/Artifacts/SymCheck Acceptance Criteria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{1AA203EE-C7BE-4194-8D04-D65EA42A2253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46BF5136-D11C-624B-9B42-5D6E04460F1F}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{1AA203EE-C7BE-4194-8D04-D65EA42A2253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{81F6065F-6B46-B246-965E-CCB71A8CF68D}"/>
   <bookViews>
     <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="20180" xr2:uid="{496174A1-1C1B-DD47-953B-A5A9CFC2B132}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Acceptance Criteria</t>
   </si>
@@ -176,6 +176,19 @@
   </si>
   <si>
     <t>Cloud Access</t>
+  </si>
+  <si>
+    <t>HID-81</t>
+  </si>
+  <si>
+    <t>FAQ Page</t>
+  </si>
+  <si>
+    <t>1. Given that the patient is on any page, when the patient clicks the FAQ button, then the patient should access the FAQ page 
+2. Given that the patient is on the FAQ page, when the patient clicks the Home button, then the patient is returned to the Homepage 
+3. Given that the patient is on the FAQ page, when the patient clicks on the New Diagnosis button, then the patient is rerouted to the ImageUpload page 
+4. Given that the patient is on the FAQ page, when the patient clicks the Find Nearest Emergency Room button, then the patient will see the nearest ERs and interact with the map
+5. Given that the patient is on the FAQ page, when the patient clicks the send feedback link, then the application will open the patient’s default mail app with the email section prefilled to send to symcheckapp@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -654,10 +667,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,6 +994,20 @@
       </c>
       <c r="D19" s="5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1205,18 +1232,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1239,26 +1266,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9973A34B-42BA-4BA6-8F6B-E8E99B4B3CE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF09264B-97F5-4B4A-88C6-C939F1F4B7CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9973A34B-42BA-4BA6-8F6B-E8E99B4B3CE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ProjectDocs/Artifacts/SymCheck Acceptance Criteria.xlsx
+++ b/ProjectDocs/Artifacts/SymCheck Acceptance Criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Sprint7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{1AA203EE-C7BE-4194-8D04-D65EA42A2253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{81F6065F-6B46-B246-965E-CCB71A8CF68D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D5715382-F8C1-4883-A783-1527F3A581AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CDC7B06E-EF96-4D9C-9278-736BBFD7C47D}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="20180" xr2:uid="{496174A1-1C1B-DD47-953B-A5A9CFC2B132}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{496174A1-1C1B-DD47-953B-A5A9CFC2B132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Acceptance Criteria</t>
   </si>
@@ -184,11 +184,38 @@
     <t>FAQ Page</t>
   </si>
   <si>
-    <t>1. Given that the patient is on any page, when the patient clicks the FAQ button, then the patient should access the FAQ page 
+    <t xml:space="preserve">1. Given that the patient is on any page, when the patient clicks the FAQ button, then the patient should access the FAQ page 
 2. Given that the patient is on the FAQ page, when the patient clicks the Home button, then the patient is returned to the Homepage 
-3. Given that the patient is on the FAQ page, when the patient clicks on the New Diagnosis button, then the patient is rerouted to the ImageUpload page 
+3. Given that the patient is on the FAQ page, when the patient clicks on the Upload button, then the patient is rerouted to the ImageUpload page 
 4. Given that the patient is on the FAQ page, when the patient clicks the Find Nearest Emergency Room button, then the patient will see the nearest ERs and interact with the map
-5. Given that the patient is on the FAQ page, when the patient clicks the send feedback link, then the application will open the patient’s default mail app with the email section prefilled to send to symcheckapp@gmail.com</t>
+</t>
+  </si>
+  <si>
+    <t>HID-59</t>
+  </si>
+  <si>
+    <t>Given that the patient is on the upload page, when the patient submits an image, then the patient is redirected to an advance page where they can answer questions with “Yes” or “No” radio options.</t>
+  </si>
+  <si>
+    <t>AdvancePage</t>
+  </si>
+  <si>
+    <t>HID-82</t>
+  </si>
+  <si>
+    <t>Given that the patient is on any page of SymCheck, when the patient clicks on “Home”, “Upload”, “FAQ”, or “About us”, then the patient will be redirected to the respective webpage.</t>
+  </si>
+  <si>
+    <t>HID-93</t>
+  </si>
+  <si>
+    <t>Given that the patient is on any page, when the patient clicks on the “About Us” link, then the patient will be redirected to the About Us page and can read about each team member and see their photo.</t>
+  </si>
+  <si>
+    <t>HID-79</t>
+  </si>
+  <si>
+    <t>Given that the patient is on the Homepage, when the user is reading the SymCheck info box, then the user.</t>
   </si>
 </sst>
 </file>
@@ -667,23 +694,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="96.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="96.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="53.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -693,7 +720,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -710,168 +737,168 @@
       <c r="F2" s="3"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -880,15 +907,15 @@
       <c r="F12" s="3"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -897,15 +924,15 @@
       <c r="F13" s="3"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -914,15 +941,15 @@
       <c r="F14" s="3"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -931,15 +958,15 @@
       <c r="F15" s="3"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -948,69 +975,128 @@
       <c r="F16" s="3"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D24">
+    <sortCondition ref="D3:D24"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -1021,6 +1107,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004E81107FE0A704B8458C943278B4E1F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5d7a2437a23173ad2037d1f1a5defc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcb18cd9-2614-41de-a438-05e8f58d2b4e" xmlns:ns4="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d70d1cc08310b67696d51f78b76f76" ns3:_="" ns4:_="">
     <xsd:import namespace="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
@@ -1231,12 +1323,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1247,6 +1333,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9973A34B-42BA-4BA6-8F6B-E8E99B4B3CE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658742AD-23CF-459D-BF62-4769585AF84A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1265,23 +1368,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9973A34B-42BA-4BA6-8F6B-E8E99B4B3CE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF09264B-97F5-4B4A-88C6-C939F1F4B7CD}">
   <ds:schemaRefs>

--- a/ProjectDocs/Artifacts/SymCheck Acceptance Criteria.xlsx
+++ b/ProjectDocs/Artifacts/SymCheck Acceptance Criteria.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Sprint7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D5715382-F8C1-4883-A783-1527F3A581AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CDC7B06E-EF96-4D9C-9278-736BBFD7C47D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{D5715382-F8C1-4883-A783-1527F3A581AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4F29D9D-E40A-3C4C-9791-5B4D8B41D966}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{496174A1-1C1B-DD47-953B-A5A9CFC2B132}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{496174A1-1C1B-DD47-953B-A5A9CFC2B132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>Acceptance Criteria</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>HID-62</t>
-  </si>
-  <si>
-    <t>1. Given that the patient has a browser open, when the patient types in SymCheck's URL, then the SymCheck application should be accessible without any errors.</t>
   </si>
   <si>
     <t>1. Given that the patient is on the ResultsPage, when the patient successfully submitted their image, then the ResultsPage should contain a seperate field that indicates under what conditions the patient should definitely see a doctor (i.e. age, state of pregnancy, etc.)</t>
@@ -216,6 +213,24 @@
   </si>
   <si>
     <t>Given that the patient is on the Homepage, when the user is reading the SymCheck info box, then the user.</t>
+  </si>
+  <si>
+    <t>Given that the patient opens a supported browser, when the patient navigates to www.symcheckapp.com, then the patient can utilize SymCheck</t>
+  </si>
+  <si>
+    <t>Given that the patient is on a mobile device using a supported browser, when the patient navigates to www.symcheckapp.com, then the patient will see a mobile friendly interface</t>
+  </si>
+  <si>
+    <t>MobileAcess</t>
+  </si>
+  <si>
+    <t>HID-64</t>
+  </si>
+  <si>
+    <t>HID-94</t>
+  </si>
+  <si>
+    <t>Given that the patient is on the Results page, when the patient receives a diagnosis, then the patient will see a progress bar showing their percentage</t>
   </si>
 </sst>
 </file>
@@ -694,23 +709,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="96.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="96.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="53.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -720,7 +735,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -737,24 +752,24 @@
       <c r="F2" s="3"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -771,15 +786,15 @@
       <c r="F4" s="3"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -788,83 +803,75 @@
       <c r="F5" s="3"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
@@ -873,15 +880,15 @@
       <c r="F10" s="3"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -890,49 +897,49 @@
       <c r="F11" s="3"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -941,15 +948,15 @@
       <c r="F14" s="3"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -958,15 +965,15 @@
       <c r="F15" s="3"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -975,15 +982,15 @@
       <c r="F16" s="3"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -992,110 +999,161 @@
       <c r="F17" s="3"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D24">
-    <sortCondition ref="D3:D24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D27">
+    <sortCondition ref="D3:D27"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1107,12 +1165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004E81107FE0A704B8458C943278B4E1F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5d7a2437a23173ad2037d1f1a5defc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcb18cd9-2614-41de-a438-05e8f58d2b4e" xmlns:ns4="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d70d1cc08310b67696d51f78b76f76" ns3:_="" ns4:_="">
     <xsd:import namespace="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
@@ -1323,6 +1375,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1333,23 +1391,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9973A34B-42BA-4BA6-8F6B-E8E99B4B3CE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658742AD-23CF-459D-BF62-4769585AF84A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1368,6 +1409,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9973A34B-42BA-4BA6-8F6B-E8E99B4B3CE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF09264B-97F5-4B4A-88C6-C939F1F4B7CD}">
   <ds:schemaRefs>
